--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/createDataDisk.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/createDataDisk.xlsx
@@ -1,25 +1,481 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10740" windowHeight="7905"/>
+  </bookViews>
   <sheets>
     <sheet name="cn" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+  <si>
+    <t>sell_out</t>
+  </si>
+  <si>
+    <t>Sold Out</t>
+  </si>
+  <si>
+    <t>data_name_range</t>
+  </si>
+  <si>
+    <t>Range of the data disk device name</t>
+  </si>
+  <si>
+    <t>see_detailRule</t>
+  </si>
+  <si>
+    <t>Click here for detailed rules</t>
+  </si>
+  <si>
+    <t>auto_assign_name</t>
+  </si>
+  <si>
+    <t>'Auto-assign device name'</t>
+  </si>
+  <si>
+    <t>snapshot</t>
+  </si>
+  <si>
+    <t>Snapshot</t>
+  </si>
+  <si>
+    <t>'Snapshot</t>
+  </si>
+  <si>
+    <t>package_in_monthly_cannot_change</t>
+  </si>
+  <si>
+    <t>'Cannot modify cloud disk under monthly package'</t>
+  </si>
+  <si>
+    <t>release_with_vm</t>
+  </si>
+  <si>
+    <t>Release on VM termination</t>
+  </si>
+  <si>
+    <t>select_snapshot</t>
+  </si>
+  <si>
+    <t>Reselect Snapshot</t>
+  </si>
+  <si>
+    <t>create_by_snapshot</t>
+  </si>
+  <si>
+    <t>Create disk from snapshot</t>
+  </si>
+  <si>
+    <t>add_disk</t>
+  </si>
+  <si>
+    <t>Add a disk (max 8)</t>
+  </si>
+  <si>
+    <t>add_disk_tips</t>
+  </si>
+  <si>
+    <t>After the cloud disk is attached to a VM, it needs to access the virtual machine operating system to load the cloud disk</t>
+  </si>
+  <si>
+    <t>restore_image_config</t>
+  </si>
+  <si>
+    <t>Restore to default Image configuration</t>
+  </si>
+  <si>
+    <t>regin_sell_out</t>
+  </si>
+  <si>
+    <t>'The cloud disks of selected region have been sold out, please switch the region.' ;</t>
+  </si>
+  <si>
+    <t>azs_sell_out</t>
+  </si>
+  <si>
+    <t>'The cloud disks of selected availability zone have been sold out, please switch the availability zone.' ;</t>
+  </si>
+  <si>
+    <t>disk_quoat_isFull</t>
+  </si>
+  <si>
+    <t>'The quota of cloud disk is full, please switch the region or open ticket and increase quota.' ;</t>
+  </si>
+  <si>
+    <t>change_type</t>
+  </si>
+  <si>
+    <t>Sold out, please select another type</t>
+  </si>
+  <si>
+    <t>efficient_disk</t>
+  </si>
+  <si>
+    <t>'Premium Hdd Cloud Disk'</t>
+  </si>
+  <si>
+    <t>SSD_disk</t>
+  </si>
+  <si>
+    <t>'SSD Cloud Disk'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>售罄</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>数据盘设备名范围</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>具体规则点此详见</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>快照</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>快照</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>随云主机释放</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>重新选择快照</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>使用快照创建</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>云硬盘挂载到云主机后，需要进入云主机操作系统加载该云硬盘。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>恢复镜像默认配置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>已售罄，请更换类型</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>自动分配设备名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>包年包月云硬盘不可修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>添加一块云硬盘，一共可增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>块</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>所选地域云硬盘已售罄，请切换地域。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>所选可用区云硬盘已售罄，请切换可用区。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>云硬盘限额已满，请切换地域或提交工单提升限额。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>高效云盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'SSD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>云盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,14 +498,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,167 +839,235 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="133.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>sell_out</v>
-      </c>
-      <c r="B1" t="str">
-        <v>售罄</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>data_name_range</v>
-      </c>
-      <c r="B2" t="str">
-        <v>数据盘设备名范围</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>see_detailRule</v>
-      </c>
-      <c r="B3" t="str">
-        <v>具体规则点此详见</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>auto_assign_name</v>
-      </c>
-      <c r="B4" t="str">
-        <v>'自动分配设备名'</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>snapshot</v>
-      </c>
-      <c r="B5" t="str">
-        <v>快照</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Snapshot</v>
-      </c>
-      <c r="B6" t="str">
-        <v>'快照</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>package_in_monthly_cannot_change</v>
-      </c>
-      <c r="B7" t="str">
-        <v>'包年包月云硬盘不可修改'</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>release_with_vm</v>
-      </c>
-      <c r="B8" t="str">
-        <v>随云主机释放</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>select_snapshot</v>
-      </c>
-      <c r="B9" t="str">
-        <v>重新选择快照</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>create_by_snapshot</v>
-      </c>
-      <c r="B10" t="str">
-        <v>使用快照创建</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>add_disk</v>
-      </c>
-      <c r="B11" t="str">
-        <v>添加一块云硬盘，一共可增加8块</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>add_disk_tips</v>
-      </c>
-      <c r="B12" t="str">
-        <v>云硬盘挂载到云主机后，需要进入云主机操作系统加载该云硬盘。</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>restore_image_config</v>
-      </c>
-      <c r="B13" t="str">
-        <v>恢复镜像默认配置</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>regin_sell_out</v>
-      </c>
-      <c r="B14" t="str">
-        <v>'所选地域云硬盘已售罄，请切换地域。';</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>azs_sell_out</v>
-      </c>
-      <c r="B15" t="str">
-        <v>'所选可用区云硬盘已售罄，请切换可用区。';</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>disk_quoat_isFull</v>
-      </c>
-      <c r="B16" t="str">
-        <v>'云硬盘限额已满，请切换地域或提交工单提升限额。';</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>change_type</v>
-      </c>
-      <c r="B17" t="str">
-        <v>已售罄，请更换类型</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>efficient_disk</v>
-      </c>
-      <c r="B18" t="str">
-        <v>'高效云盘'</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>SSD_disk</v>
-      </c>
-      <c r="B19" t="str">
-        <v>'SSD云盘'</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B19"/>
+    <ignoredError sqref="C1:C19 A1:A19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>